--- a/E2J/Excel/E2JConfig.xlsx
+++ b/E2J/Excel/E2JConfig.xlsx
@@ -109,7 +109,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,8 +122,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -146,27 +152,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -441,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -455,68 +537,68 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.33203125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="7.6640625" style="3" customWidth="1"/>
-    <col min="12" max="24" width="15.109375" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="12.6640625" style="3"/>
+    <col min="1" max="1" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.33203125" style="2" customWidth="1"/>
+    <col min="9" max="11" width="7.6640625" style="2" customWidth="1"/>
+    <col min="12" max="24" width="15.109375" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" s="8" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>10001</v>
       </c>
     </row>
